--- a/data/trans_orig/P16A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F576D21A-B21A-487F-BEAA-45E11E357888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{190DA65D-7614-494E-B525-76A5A9D72E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6046ECAC-369E-4443-95CB-FFF827C88725}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{121C88DE-2987-4C9C-9C16-D8114294D970}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>10,37%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>24,17%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,63%</t>
   </si>
   <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>75,83%</t>
   </si>
   <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
   </si>
   <si>
     <t>82,81%</t>
   </si>
   <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1228 +140,1234 @@
     <t>13,2%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>21,93%</t>
   </si>
   <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
   </si>
   <si>
     <t>78,07%</t>
   </si>
   <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
     <t>59,74%</t>
   </si>
   <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
   </si>
   <si>
     <t>66,91%</t>
   </si>
   <si>
-    <t>68,96%</t>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
   <si>
     <t>76,35%</t>
   </si>
   <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
   </si>
   <si>
     <t>59,04%</t>
   </si>
   <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF24C57-5775-4778-B55D-69645D2E6CD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013FD304-ED7F-4F43-97B8-A70D80E3E3A4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2070,10 +2076,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>187</v>
@@ -2082,13 +2088,13 @@
         <v>187655</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,13 +2109,13 @@
         <v>501364</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -2118,13 +2124,13 @@
         <v>464213</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>958</v>
@@ -2133,13 +2139,13 @@
         <v>965577</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,7 +2201,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2207,13 +2213,13 @@
         <v>128164</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
@@ -2222,13 +2228,13 @@
         <v>212733</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>324</v>
@@ -2237,13 +2243,13 @@
         <v>340896</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2264,13 @@
         <v>833636</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>709</v>
@@ -2273,13 +2279,13 @@
         <v>755660</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1480</v>
@@ -2288,13 +2294,13 @@
         <v>1589297</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,7 +2356,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2362,13 +2368,13 @@
         <v>83274</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>178</v>
@@ -2377,13 +2383,13 @@
         <v>177351</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -2392,13 +2398,13 @@
         <v>260625</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2419,13 @@
         <v>595235</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>518</v>
@@ -2428,13 +2434,13 @@
         <v>506490</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1077</v>
@@ -2443,13 +2449,13 @@
         <v>1101725</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,7 +2511,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2517,13 +2523,13 @@
         <v>156120</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>264</v>
@@ -2532,13 +2538,13 @@
         <v>277902</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>434</v>
@@ -2547,13 +2553,13 @@
         <v>434021</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2574,13 @@
         <v>786102</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>733</v>
@@ -2583,13 +2589,13 @@
         <v>760710</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1557</v>
@@ -2598,13 +2604,13 @@
         <v>1546813</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2678,13 @@
         <v>455794</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>783</v>
@@ -2687,13 +2693,13 @@
         <v>806617</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1247</v>
@@ -2702,13 +2708,13 @@
         <v>1262411</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,16 +2726,16 @@
         <v>2749</v>
       </c>
       <c r="D20" s="7">
-        <v>2819731</v>
+        <v>2819732</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2514</v>
@@ -2738,28 +2744,28 @@
         <v>2572581</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5263</v>
       </c>
       <c r="N20" s="7">
-        <v>5392311</v>
+        <v>5392312</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,7 +2777,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2801,7 +2807,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2815,7 +2821,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00285ECD-01EB-4432-88A8-D42DD5712F04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33026C1B-58DF-4CFD-9F18-967E3F4B9AB3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2853,7 +2859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2960,13 +2966,13 @@
         <v>16670</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -2975,13 +2981,13 @@
         <v>42045</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -2990,13 +2996,13 @@
         <v>58715</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3017,13 @@
         <v>98280</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -3026,13 +3032,13 @@
         <v>69860</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -3041,13 +3047,13 @@
         <v>168140</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3121,13 @@
         <v>104475</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>177</v>
@@ -3130,13 +3136,13 @@
         <v>189646</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>274</v>
@@ -3145,13 +3151,13 @@
         <v>294120</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3172,13 @@
         <v>481339</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -3181,13 +3187,13 @@
         <v>394456</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>826</v>
@@ -3196,13 +3202,13 @@
         <v>875795</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3264,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3270,13 +3276,13 @@
         <v>193995</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>294</v>
@@ -3285,13 +3291,13 @@
         <v>325047</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
@@ -3300,13 +3306,13 @@
         <v>519042</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3327,13 @@
         <v>823952</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>643</v>
@@ -3336,13 +3342,13 @@
         <v>703911</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1402</v>
@@ -3351,13 +3357,13 @@
         <v>1527863</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,7 +3419,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3425,13 +3431,13 @@
         <v>124417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -3440,13 +3446,13 @@
         <v>246627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>335</v>
@@ -3455,13 +3461,13 @@
         <v>371044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3482,13 @@
         <v>632121</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -3491,13 +3497,13 @@
         <v>529656</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1057</v>
@@ -3506,13 +3512,13 @@
         <v>1161777</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3574,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3580,13 +3586,13 @@
         <v>171825</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>368</v>
@@ -3595,13 +3601,13 @@
         <v>385607</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>531</v>
@@ -3610,13 +3616,13 @@
         <v>557432</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3637,13 @@
         <v>774105</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>633</v>
@@ -3646,13 +3652,13 @@
         <v>664139</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1378</v>
@@ -3661,13 +3667,13 @@
         <v>1438245</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3741,13 @@
         <v>611383</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H19" s="7">
         <v>1099</v>
@@ -3750,13 +3756,13 @@
         <v>1188971</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>1667</v>
@@ -3765,13 +3771,13 @@
         <v>1800354</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,10 +3792,10 @@
         <v>2809796</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>224</v>
@@ -3878,7 +3884,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EB53B3-004F-4434-8414-EEE5BA7C285D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9813608-F39B-4BD5-B12B-619F88AB7CF4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4321,7 +4327,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4366,10 +4372,10 @@
         <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4390,13 @@
         <v>820474</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>706</v>
@@ -4399,13 +4405,13 @@
         <v>745071</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1470</v>
@@ -4414,13 +4420,13 @@
         <v>1565545</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4482,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4488,13 +4494,13 @@
         <v>112890</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
@@ -4503,13 +4509,13 @@
         <v>222612</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -4518,13 +4524,13 @@
         <v>335502</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4545,13 @@
         <v>646662</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -4554,13 +4560,13 @@
         <v>562399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>1120</v>
@@ -4569,10 +4575,10 @@
         <v>1209061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>301</v>
@@ -4631,7 +4637,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4801,10 +4807,10 @@
         <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>1013</v>
@@ -4813,10 +4819,10 @@
         <v>1102356</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>323</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>324</v>
@@ -4855,7 +4861,7 @@
         <v>329</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>2325</v>
@@ -4864,13 +4870,13 @@
         <v>2442186</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>4944</v>
@@ -4941,7 +4947,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E14EFAD-117A-48D9-90E3-6B1B86B54D24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844B74E4-75AF-4417-A60F-EC4E24FD8DA0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5089,10 +5095,10 @@
         <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>116</v>
@@ -5101,13 +5107,13 @@
         <v>53638</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>152</v>
@@ -5116,13 +5122,13 @@
         <v>81490</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5143,13 @@
         <v>74129</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>127</v>
@@ -5152,13 +5158,13 @@
         <v>77095</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>209</v>
@@ -5167,13 +5173,13 @@
         <v>151225</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5247,13 @@
         <v>151860</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>444</v>
@@ -5256,13 +5262,13 @@
         <v>235476</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>626</v>
@@ -5271,13 +5277,13 @@
         <v>387335</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5298,13 @@
         <v>397963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>552</v>
@@ -5307,13 +5313,13 @@
         <v>357486</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>982</v>
@@ -5322,13 +5328,13 @@
         <v>755450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,7 +5390,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5396,13 +5402,13 @@
         <v>215896</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>652</v>
@@ -5411,13 +5417,13 @@
         <v>411280</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>883</v>
@@ -5426,13 +5432,13 @@
         <v>627176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5453,13 @@
         <v>823352</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>864</v>
@@ -5462,13 +5468,13 @@
         <v>648194</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>1597</v>
@@ -5477,13 +5483,13 @@
         <v>1471546</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,7 +5545,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5551,13 +5557,13 @@
         <v>167848</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>419</v>
@@ -5566,13 +5572,13 @@
         <v>396314</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>587</v>
@@ -5581,13 +5587,13 @@
         <v>564161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,10 +5608,10 @@
         <v>560924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>400</v>
@@ -5694,7 +5700,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5742,7 +5748,7 @@
         <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5763,13 @@
         <v>728169</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>878</v>
@@ -5772,13 +5778,13 @@
         <v>684838</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>1617</v>
@@ -5787,13 +5793,13 @@
         <v>1413007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5867,13 @@
         <v>800691</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>2312</v>
@@ -5876,13 +5882,13 @@
         <v>1558171</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>3196</v>
@@ -5891,13 +5897,13 @@
         <v>2358862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5918,13 @@
         <v>2584537</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>3049</v>
@@ -5927,13 +5933,13 @@
         <v>2245671</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>5541</v>
@@ -5942,13 +5948,13 @@
         <v>4830208</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,7 +6010,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{190DA65D-7614-494E-B525-76A5A9D72E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C980C454-593F-4E72-A3FB-60E130156CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{121C88DE-2987-4C9C-9C16-D8114294D970}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A854E2D-F375-4B24-AEC9-81F8388709B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,25 +77,25 @@
     <t>10,37%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
   </si>
   <si>
     <t>24,17%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>13,16%</t>
+    <t>13,13%</t>
   </si>
   <si>
     <t>22,69%</t>
@@ -107,19 +107,19 @@
     <t>89,63%</t>
   </si>
   <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>75,83%</t>
   </si>
   <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>82,81%</t>
@@ -128,175 +128,181 @@
     <t>77,31%</t>
   </si>
   <si>
-    <t>86,84%</t>
+    <t>86,87%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>23,15%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>80,65%</t>
   </si>
   <si>
-    <t>76,85%</t>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
   </si>
   <si>
     <t>17,66%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
   </si>
   <si>
     <t>82,34%</t>
   </si>
   <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>25,93%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,31 +314,31 @@
     <t>14,38%</t>
   </si>
   <si>
-    <t>18,89%</t>
+    <t>19,04%</t>
   </si>
   <si>
     <t>26,76%</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>21,91%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>83,43%</t>
   </si>
   <si>
-    <t>81,11%</t>
+    <t>80,96%</t>
   </si>
   <si>
     <t>85,62%</t>
@@ -341,904 +347,898 @@
     <t>73,24%</t>
   </si>
   <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>78,09%</t>
   </si>
   <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>22,3%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>31,77%</t>
   </si>
   <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>68,23%</t>
   </si>
   <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>18,16%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>36,73%</t>
   </si>
   <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
   </si>
   <si>
     <t>27,93%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
   </si>
   <si>
     <t>81,84%</t>
   </si>
   <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>63,27%</t>
   </si>
   <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
   </si>
   <si>
     <t>72,07%</t>
   </si>
   <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
   </si>
   <si>
     <t>17,87%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>24,66%</t>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>26,88%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
   </si>
   <si>
     <t>73,12%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
   </si>
   <si>
     <t>80,11%</t>
@@ -1779,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013FD304-ED7F-4F43-97B8-A70D80E3E3A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2509D663-2543-4904-87DA-2E035EED9A87}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2076,10 +2076,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>187</v>
@@ -2088,13 +2088,13 @@
         <v>187655</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,13 +2109,13 @@
         <v>501364</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -2124,13 +2124,13 @@
         <v>464213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>958</v>
@@ -2139,13 +2139,13 @@
         <v>965577</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,7 +2201,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2213,13 +2213,13 @@
         <v>128164</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
@@ -2228,13 +2228,13 @@
         <v>212733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>324</v>
@@ -2243,13 +2243,13 @@
         <v>340896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2264,13 @@
         <v>833636</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>709</v>
@@ -2279,13 +2279,13 @@
         <v>755660</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1480</v>
@@ -2294,13 +2294,13 @@
         <v>1589297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,7 +2356,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2368,13 +2368,13 @@
         <v>83274</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>178</v>
@@ -2383,13 +2383,13 @@
         <v>177351</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -2398,13 +2398,13 @@
         <v>260625</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2419,13 @@
         <v>595235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>518</v>
@@ -2434,13 +2434,13 @@
         <v>506490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1077</v>
@@ -2449,13 +2449,13 @@
         <v>1101725</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,7 +2511,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2523,13 +2523,13 @@
         <v>156120</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>264</v>
@@ -2538,13 +2538,13 @@
         <v>277902</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>434</v>
@@ -2553,13 +2553,13 @@
         <v>434021</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2574,13 @@
         <v>786102</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>733</v>
@@ -2589,13 +2589,13 @@
         <v>760710</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1557</v>
@@ -2604,13 +2604,13 @@
         <v>1546813</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2678,13 @@
         <v>455794</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>783</v>
@@ -2693,13 +2693,13 @@
         <v>806617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1247</v>
@@ -2708,13 +2708,13 @@
         <v>1262411</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,16 +2726,16 @@
         <v>2749</v>
       </c>
       <c r="D20" s="7">
-        <v>2819732</v>
+        <v>2819731</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2514</v>
@@ -2744,13 +2744,13 @@
         <v>2572581</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5263</v>
@@ -2759,13 +2759,13 @@
         <v>5392312</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2777,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33026C1B-58DF-4CFD-9F18-967E3F4B9AB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BAB8C3-ADDC-49AB-8FF4-46D1A73DC103}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2859,7 +2859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2966,13 +2966,13 @@
         <v>16670</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -2981,13 +2981,13 @@
         <v>42045</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -2996,13 +2996,13 @@
         <v>58715</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3017,13 @@
         <v>98280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -3032,13 +3032,13 @@
         <v>69860</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -3047,13 +3047,13 @@
         <v>168140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3121,13 @@
         <v>104475</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>177</v>
@@ -3136,13 +3136,13 @@
         <v>189646</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>274</v>
@@ -3151,13 +3151,13 @@
         <v>294120</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3172,13 @@
         <v>481339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -3187,13 +3187,13 @@
         <v>394456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>826</v>
@@ -3202,13 +3202,13 @@
         <v>875795</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,7 +3264,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3276,13 +3276,13 @@
         <v>193995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>294</v>
@@ -3291,13 +3291,13 @@
         <v>325047</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
@@ -3306,13 +3306,13 @@
         <v>519042</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3327,13 @@
         <v>823952</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>643</v>
@@ -3342,13 +3342,13 @@
         <v>703911</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1402</v>
@@ -3357,13 +3357,13 @@
         <v>1527863</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,7 +3419,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3431,13 +3431,13 @@
         <v>124417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -3446,13 +3446,13 @@
         <v>246627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>335</v>
@@ -3461,13 +3461,13 @@
         <v>371044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3482,13 @@
         <v>632121</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -3497,13 +3497,13 @@
         <v>529656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>1057</v>
@@ -3512,13 +3512,13 @@
         <v>1161777</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,7 +3574,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3586,13 +3586,13 @@
         <v>171825</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>368</v>
@@ -3601,13 +3601,13 @@
         <v>385607</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>531</v>
@@ -3616,13 +3616,13 @@
         <v>557432</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3637,13 @@
         <v>774105</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>633</v>
@@ -3652,13 +3652,13 @@
         <v>664139</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>1378</v>
@@ -3667,13 +3667,13 @@
         <v>1438245</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3741,13 @@
         <v>611383</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>1099</v>
@@ -3756,28 +3756,28 @@
         <v>1188971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>1667</v>
       </c>
       <c r="N19" s="7">
-        <v>1800354</v>
+        <v>1800353</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3792,13 @@
         <v>2809796</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>2192</v>
@@ -3807,13 +3807,13 @@
         <v>2362023</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>4827</v>
@@ -3822,13 +3822,13 @@
         <v>5171820</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,7 +3870,7 @@
         <v>6494</v>
       </c>
       <c r="N21" s="7">
-        <v>6972174</v>
+        <v>6972173</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3905,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9813608-F39B-4BD5-B12B-619F88AB7CF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A430CC1-4790-4BA9-B489-FB52D9FCBE34}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3922,7 +3922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4029,13 +4029,13 @@
         <v>23630</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>43</v>
@@ -4044,13 +4044,13 @@
         <v>44846</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>65</v>
@@ -4059,13 +4059,13 @@
         <v>68476</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4080,13 @@
         <v>92916</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -4095,13 +4095,13 @@
         <v>68514</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>163</v>
@@ -4110,13 +4110,13 @@
         <v>161430</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4184,13 @@
         <v>104611</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -4199,13 +4199,13 @@
         <v>175307</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>272</v>
@@ -4214,13 +4214,13 @@
         <v>279918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4235,13 @@
         <v>453643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>381</v>
@@ -4250,13 +4250,13 @@
         <v>384172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>818</v>
@@ -4265,13 +4265,13 @@
         <v>837815</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,7 +4327,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4339,13 +4339,13 @@
         <v>201957</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>271</v>
@@ -4354,10 +4354,10 @@
         <v>297842</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>273</v>
@@ -4405,13 +4405,13 @@
         <v>745071</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>1470</v>
@@ -4420,13 +4420,13 @@
         <v>1565545</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4482,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4494,13 +4494,13 @@
         <v>112890</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
@@ -4509,13 +4509,13 @@
         <v>222612</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -4524,13 +4524,13 @@
         <v>335502</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4545,13 @@
         <v>646662</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -4560,13 +4560,13 @@
         <v>562399</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>1120</v>
@@ -4575,10 +4575,10 @@
         <v>1209061</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>301</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4822,7 +4822,7 @@
         <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>324</v>
@@ -4876,7 +4876,7 @@
         <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>4944</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4968,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844B74E4-75AF-4417-A60F-EC4E24FD8DA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12479186-0C4F-424E-AE47-5ACB6F7BFC7E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5280,10 +5280,10 @@
         <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5298,13 @@
         <v>397963</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>552</v>
@@ -5313,13 +5313,13 @@
         <v>357486</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>982</v>
@@ -5328,13 +5328,13 @@
         <v>755450</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,7 +5390,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5402,13 +5402,13 @@
         <v>215896</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>652</v>
@@ -5417,13 +5417,13 @@
         <v>411280</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>883</v>
@@ -5432,13 +5432,13 @@
         <v>627176</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5453,13 @@
         <v>823352</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>864</v>
@@ -5468,13 +5468,13 @@
         <v>648194</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>1597</v>
@@ -5483,13 +5483,13 @@
         <v>1471546</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,7 +5545,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5557,13 +5557,13 @@
         <v>167848</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>419</v>
@@ -5572,13 +5572,13 @@
         <v>396314</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>587</v>
@@ -5587,13 +5587,13 @@
         <v>564161</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,10 +5608,10 @@
         <v>560924</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>400</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C980C454-593F-4E72-A3FB-60E130156CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22F26EF1-3EF2-4F18-B0ED-0F6470570795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A854E2D-F375-4B24-AEC9-81F8388709B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C7E33B2-C327-4B57-8CA1-C30D72B20D28}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>24,17%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,63%</t>
   </si>
   <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>75,83%</t>
   </si>
   <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>82,81%</t>
   </si>
   <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>13,2%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>80,65%</t>
   </si>
   <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,10 +197,10 @@
     <t>13,33%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>21,97%</t>
@@ -209,31 +209,31 @@
     <t>19,38%</t>
   </si>
   <si>
-    <t>24,78%</t>
+    <t>25,26%</t>
   </si>
   <si>
     <t>17,66%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>75,22%</t>
+    <t>74,74%</t>
   </si>
   <si>
     <t>80,62%</t>
@@ -242,10 +242,10 @@
     <t>82,34%</t>
   </si>
   <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -254,16 +254,16 @@
     <t>12,27%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>25,93%</t>
   </si>
   <si>
-    <t>22,68%</t>
+    <t>22,62%</t>
   </si>
   <si>
     <t>29,3%</t>
@@ -275,16 +275,16 @@
     <t>17,13%</t>
   </si>
   <si>
-    <t>21,41%</t>
+    <t>21,44%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>74,07%</t>
@@ -293,13 +293,13 @@
     <t>70,7%</t>
   </si>
   <si>
-    <t>77,32%</t>
+    <t>77,38%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>78,59%</t>
+    <t>78,56%</t>
   </si>
   <si>
     <t>82,87%</t>
@@ -311,1063 +311,1057 @@
     <t>16,57%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>26,76%</t>
   </si>
   <si>
-    <t>23,96%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>36,44%</t>
   </si>
   <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
   </si>
   <si>
     <t>63,56%</t>
   </si>
   <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
+    <t>68,77%</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2509D663-2543-4904-87DA-2E035EED9A87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B24926-5A88-4946-ABDF-4726F6567C1F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2756,7 +2750,7 @@
         <v>5263</v>
       </c>
       <c r="N20" s="7">
-        <v>5392312</v>
+        <v>5392311</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -2807,7 +2801,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2842,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BAB8C3-ADDC-49AB-8FF4-46D1A73DC103}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CFC1BE-5108-469F-860B-EE1738F4A1AD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3431,13 +3425,13 @@
         <v>124417</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -3446,13 +3440,13 @@
         <v>246627</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>335</v>
@@ -3461,13 +3455,13 @@
         <v>371044</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3476,13 @@
         <v>632121</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -3497,13 +3491,13 @@
         <v>529656</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>1057</v>
@@ -3512,13 +3506,13 @@
         <v>1161777</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3580,13 @@
         <v>171825</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>368</v>
@@ -3601,13 +3595,13 @@
         <v>385607</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>531</v>
@@ -3616,13 +3610,13 @@
         <v>557432</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3631,13 @@
         <v>774105</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>633</v>
@@ -3652,13 +3646,13 @@
         <v>664139</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>1378</v>
@@ -3667,13 +3661,13 @@
         <v>1438245</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3735,13 @@
         <v>611383</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="H19" s="7">
         <v>1099</v>
@@ -3756,28 +3750,28 @@
         <v>1188971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>1667</v>
       </c>
       <c r="N19" s="7">
-        <v>1800353</v>
+        <v>1800354</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3786,13 @@
         <v>2809796</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2192</v>
@@ -3807,13 +3801,13 @@
         <v>2362023</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>4827</v>
@@ -3822,13 +3816,13 @@
         <v>5171820</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,7 +3864,7 @@
         <v>6494</v>
       </c>
       <c r="N21" s="7">
-        <v>6972173</v>
+        <v>6972174</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3905,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A430CC1-4790-4BA9-B489-FB52D9FCBE34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E122094-ACBD-4204-A78B-0868EEB3833A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3922,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4029,13 +4023,13 @@
         <v>23630</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>43</v>
@@ -4044,13 +4038,13 @@
         <v>44846</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>65</v>
@@ -4059,13 +4053,13 @@
         <v>68476</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4074,13 @@
         <v>92916</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -4095,13 +4089,13 @@
         <v>68514</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>163</v>
@@ -4110,13 +4104,13 @@
         <v>161430</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4178,13 @@
         <v>104611</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -4199,13 +4193,13 @@
         <v>175307</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>272</v>
@@ -4214,13 +4208,13 @@
         <v>279918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4229,13 @@
         <v>453643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>381</v>
@@ -4250,13 +4244,13 @@
         <v>384172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>818</v>
@@ -4265,13 +4259,13 @@
         <v>837815</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4333,13 @@
         <v>201957</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>271</v>
@@ -4354,10 +4348,10 @@
         <v>297842</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>273</v>
@@ -4372,10 +4366,10 @@
         <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4384,13 @@
         <v>820474</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>706</v>
@@ -4405,13 +4399,13 @@
         <v>745071</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>177</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1470</v>
@@ -4420,13 +4414,13 @@
         <v>1565545</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,10 +4801,10 @@
         <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>1013</v>
@@ -4819,10 +4813,10 @@
         <v>1102356</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>324</v>
@@ -4861,7 +4855,7 @@
         <v>329</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>2325</v>
@@ -4870,13 +4864,13 @@
         <v>2442186</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>4944</v>
@@ -4968,7 +4962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12479186-0C4F-424E-AE47-5ACB6F7BFC7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CE71B9-7021-4BFF-9EEA-2205DF812AB9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5095,10 +5089,10 @@
         <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>116</v>
@@ -5107,13 +5101,13 @@
         <v>53638</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>152</v>
@@ -5122,13 +5116,13 @@
         <v>81490</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5137,13 @@
         <v>74129</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="H5" s="7">
         <v>127</v>
@@ -5158,13 +5152,13 @@
         <v>77095</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>209</v>
@@ -5173,13 +5167,13 @@
         <v>151225</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5241,13 @@
         <v>151860</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>444</v>
@@ -5262,13 +5256,13 @@
         <v>235476</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>626</v>
@@ -5277,13 +5271,13 @@
         <v>387335</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5292,13 @@
         <v>397963</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H8" s="7">
         <v>552</v>
@@ -5313,13 +5307,13 @@
         <v>357486</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M8" s="7">
         <v>982</v>
@@ -5328,13 +5322,13 @@
         <v>755450</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,7 +5742,7 @@
         <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5757,13 @@
         <v>728169</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>878</v>
@@ -5778,13 +5772,13 @@
         <v>684838</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>1617</v>
@@ -5793,13 +5787,13 @@
         <v>1413007</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5861,13 @@
         <v>800691</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>2312</v>
@@ -5882,13 +5876,13 @@
         <v>1558171</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>3196</v>
@@ -5897,13 +5891,13 @@
         <v>2358862</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5912,13 @@
         <v>2584537</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>3049</v>
@@ -5933,13 +5927,13 @@
         <v>2245671</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>5541</v>
@@ -5948,13 +5942,13 @@
         <v>4830208</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22F26EF1-3EF2-4F18-B0ED-0F6470570795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D24A51-D4E0-4590-B194-31E900137E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C7E33B2-C327-4B57-8CA1-C30D72B20D28}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9589DBBE-A5DF-4061-844E-2CF1B92070CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,1300 +68,1075 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
   </si>
   <si>
     <t>32,47%</t>
   </si>
   <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
   </si>
   <si>
     <t>67,53%</t>
   </si>
   <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
 </sst>
 </file>
@@ -1773,8 +1548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B24926-5A88-4946-ABDF-4726F6567C1F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE88A84-3235-4300-B25B-E51FF8AF08AC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1891,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D4" s="7">
-        <v>11965</v>
+        <v>88237</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1906,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="I4" s="7">
-        <v>27248</v>
+        <v>138631</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1921,10 +1696,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="N4" s="7">
-        <v>39213</v>
+        <v>226868</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1942,10 +1717,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>94</v>
+        <v>595</v>
       </c>
       <c r="D5" s="7">
-        <v>103393</v>
+        <v>604757</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1957,10 +1732,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>97</v>
+        <v>554</v>
       </c>
       <c r="I5" s="7">
-        <v>85507</v>
+        <v>549720</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1972,10 +1747,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>191</v>
+        <v>1149</v>
       </c>
       <c r="N5" s="7">
-        <v>188900</v>
+        <v>1154477</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1993,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2008,10 +1783,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2023,10 +1798,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2046,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="D7" s="7">
-        <v>76272</v>
+        <v>128164</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2061,10 +1836,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="I7" s="7">
-        <v>111383</v>
+        <v>212733</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2076,10 +1851,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>187</v>
+        <v>324</v>
       </c>
       <c r="N7" s="7">
-        <v>187655</v>
+        <v>340896</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2097,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>501</v>
+        <v>771</v>
       </c>
       <c r="D8" s="7">
-        <v>501364</v>
+        <v>833636</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2112,10 +1887,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>457</v>
+        <v>709</v>
       </c>
       <c r="I8" s="7">
-        <v>464213</v>
+        <v>755660</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2127,10 +1902,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>958</v>
+        <v>1480</v>
       </c>
       <c r="N8" s="7">
-        <v>965577</v>
+        <v>1589297</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2148,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2163,10 +1938,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2178,10 +1953,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2201,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7">
-        <v>128164</v>
+        <v>83274</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2216,10 +1991,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="I10" s="7">
-        <v>212733</v>
+        <v>177351</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2231,10 +2006,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="N10" s="7">
-        <v>340896</v>
+        <v>260625</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2252,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>771</v>
+        <v>559</v>
       </c>
       <c r="D11" s="7">
-        <v>833636</v>
+        <v>595235</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2267,10 +2042,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>709</v>
+        <v>518</v>
       </c>
       <c r="I11" s="7">
-        <v>755660</v>
+        <v>506490</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2282,10 +2057,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1480</v>
+        <v>1077</v>
       </c>
       <c r="N11" s="7">
-        <v>1589297</v>
+        <v>1101725</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2303,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2318,10 +2093,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2333,10 +2108,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2356,10 +2131,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="D13" s="7">
-        <v>83274</v>
+        <v>156120</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2371,10 +2146,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="I13" s="7">
-        <v>177351</v>
+        <v>277902</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2386,10 +2161,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>260</v>
+        <v>434</v>
       </c>
       <c r="N13" s="7">
-        <v>260625</v>
+        <v>434021</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2407,10 +2182,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>559</v>
+        <v>824</v>
       </c>
       <c r="D14" s="7">
-        <v>595235</v>
+        <v>786102</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2422,10 +2197,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>518</v>
+        <v>733</v>
       </c>
       <c r="I14" s="7">
-        <v>506490</v>
+        <v>760710</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2437,10 +2212,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1077</v>
+        <v>1557</v>
       </c>
       <c r="N14" s="7">
-        <v>1101725</v>
+        <v>1546813</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2458,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2473,10 +2248,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2488,10 +2263,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2505,55 +2280,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>170</v>
+        <v>464</v>
       </c>
       <c r="D16" s="7">
-        <v>156120</v>
+        <v>455794</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>783</v>
+      </c>
+      <c r="I16" s="7">
+        <v>806617</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>264</v>
-      </c>
-      <c r="I16" s="7">
-        <v>277902</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1247</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1262411</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>434</v>
-      </c>
-      <c r="N16" s="7">
-        <v>434021</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,49 +2337,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>824</v>
+        <v>2749</v>
       </c>
       <c r="D17" s="7">
-        <v>786102</v>
+        <v>2819731</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2514</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2572580</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>733</v>
-      </c>
-      <c r="I17" s="7">
-        <v>760710</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5263</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5392311</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1557</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1546813</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,10 +2388,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2628,10 +2403,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2643,10 +2418,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2659,171 +2434,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>464</v>
-      </c>
-      <c r="D19" s="7">
-        <v>455794</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>783</v>
-      </c>
-      <c r="I19" s="7">
-        <v>806617</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1247</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1262411</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2749</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2819731</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2514</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2572581</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5263</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5392311</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2836,8 +2455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CFC1BE-5108-469F-860B-EE1738F4A1AD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0996BB2C-7354-4141-A7FF-CB73E9135AA2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2853,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2954,49 +2573,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="D4" s="7">
-        <v>16670</v>
+        <v>121145</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
+        <v>214</v>
+      </c>
+      <c r="I4" s="7">
+        <v>231690</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="7">
+        <v>330</v>
+      </c>
+      <c r="N4" s="7">
+        <v>352835</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="7">
-        <v>42045</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M4" s="7">
-        <v>56</v>
-      </c>
-      <c r="N4" s="7">
-        <v>58715</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,49 +2624,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>555</v>
       </c>
       <c r="D5" s="7">
-        <v>98280</v>
+        <v>579619</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>62</v>
+        <v>435</v>
       </c>
       <c r="I5" s="7">
-        <v>69860</v>
+        <v>464317</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
-        <v>164</v>
+        <v>990</v>
       </c>
       <c r="N5" s="7">
-        <v>168140</v>
+        <v>1043935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>671</v>
       </c>
       <c r="D6" s="7">
-        <v>114950</v>
+        <v>700764</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3071,10 +2690,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>649</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>696007</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3086,10 +2705,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1320</v>
       </c>
       <c r="N6" s="7">
-        <v>226855</v>
+        <v>1396770</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3109,49 +2728,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="D7" s="7">
-        <v>104475</v>
+        <v>193995</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="I7" s="7">
-        <v>189646</v>
+        <v>325047</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>274</v>
+        <v>471</v>
       </c>
       <c r="N7" s="7">
-        <v>294120</v>
+        <v>519042</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,49 +2779,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>453</v>
+        <v>759</v>
       </c>
       <c r="D8" s="7">
-        <v>481339</v>
+        <v>823952</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>373</v>
+        <v>643</v>
       </c>
       <c r="I8" s="7">
-        <v>394456</v>
+        <v>703911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>826</v>
+        <v>1402</v>
       </c>
       <c r="N8" s="7">
-        <v>875795</v>
+        <v>1527863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3226,10 +2845,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>937</v>
       </c>
       <c r="I9" s="7">
-        <v>584102</v>
+        <v>1028958</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3241,10 +2860,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1100</v>
+        <v>1873</v>
       </c>
       <c r="N9" s="7">
-        <v>1169915</v>
+        <v>2046905</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3264,49 +2883,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="D10" s="7">
-        <v>193995</v>
+        <v>124417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="I10" s="7">
-        <v>325047</v>
+        <v>246627</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>471</v>
+        <v>335</v>
       </c>
       <c r="N10" s="7">
-        <v>519042</v>
+        <v>371044</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,49 +2934,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="D11" s="7">
-        <v>823952</v>
+        <v>632121</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>643</v>
+        <v>481</v>
       </c>
       <c r="I11" s="7">
-        <v>703911</v>
+        <v>529656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>1402</v>
+        <v>1057</v>
       </c>
       <c r="N11" s="7">
-        <v>1527863</v>
+        <v>1161777</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3381,10 +3000,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>937</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1028958</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3396,10 +3015,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1873</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2046905</v>
+        <v>1532821</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3419,49 +3038,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D13" s="7">
-        <v>124417</v>
+        <v>171825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>223</v>
+        <v>368</v>
       </c>
       <c r="I13" s="7">
-        <v>246627</v>
+        <v>385607</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>335</v>
+        <v>531</v>
       </c>
       <c r="N13" s="7">
-        <v>371044</v>
+        <v>557432</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,49 +3089,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>576</v>
+        <v>745</v>
       </c>
       <c r="D14" s="7">
-        <v>632121</v>
+        <v>774105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>481</v>
+        <v>633</v>
       </c>
       <c r="I14" s="7">
-        <v>529656</v>
+        <v>664139</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>1057</v>
+        <v>1378</v>
       </c>
       <c r="N14" s="7">
-        <v>1161777</v>
+        <v>1438245</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,10 +3140,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>908</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>945930</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3536,10 +3155,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1001</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1049746</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3551,10 +3170,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1909</v>
       </c>
       <c r="N15" s="7">
-        <v>1532821</v>
+        <v>1995677</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3568,55 +3187,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>163</v>
+        <v>568</v>
       </c>
       <c r="D16" s="7">
-        <v>171825</v>
+        <v>611383</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
-        <v>368</v>
+        <v>1099</v>
       </c>
       <c r="I16" s="7">
-        <v>385607</v>
+        <v>1188971</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>531</v>
+        <v>1667</v>
       </c>
       <c r="N16" s="7">
-        <v>557432</v>
+        <v>1800354</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,49 +3244,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>745</v>
+        <v>2635</v>
       </c>
       <c r="D17" s="7">
-        <v>774105</v>
+        <v>2809796</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
-        <v>633</v>
+        <v>2192</v>
       </c>
       <c r="I17" s="7">
-        <v>664139</v>
+        <v>2362024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>1378</v>
+        <v>4827</v>
       </c>
       <c r="N17" s="7">
-        <v>1438245</v>
+        <v>5171820</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,10 +3295,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>908</v>
+        <v>3203</v>
       </c>
       <c r="D18" s="7">
-        <v>945930</v>
+        <v>3421179</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3691,10 +3310,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1001</v>
+        <v>3291</v>
       </c>
       <c r="I18" s="7">
-        <v>1049746</v>
+        <v>3550995</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3706,10 +3325,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1909</v>
+        <v>6494</v>
       </c>
       <c r="N18" s="7">
-        <v>1995677</v>
+        <v>6972174</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3722,171 +3341,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>568</v>
-      </c>
-      <c r="D19" s="7">
-        <v>611383</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1099</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1188971</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1667</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1800354</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2635</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2809796</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2192</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2362023</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4827</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5171820</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3203</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3421179</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3291</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3550994</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6494</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6972174</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3899,8 +3362,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E122094-ACBD-4204-A78B-0868EEB3833A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1432E4-48AD-4731-BA85-0DDDB6721D94}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3916,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,49 +3480,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="D4" s="7">
-        <v>23630</v>
+        <v>128241</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="I4" s="7">
-        <v>44846</v>
+        <v>220153</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>65</v>
+        <v>337</v>
       </c>
       <c r="N4" s="7">
-        <v>68476</v>
+        <v>348394</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,49 +3531,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>528</v>
       </c>
       <c r="D5" s="7">
-        <v>92916</v>
+        <v>546559</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>72</v>
+        <v>453</v>
       </c>
       <c r="I5" s="7">
-        <v>68514</v>
+        <v>452686</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>163</v>
+        <v>981</v>
       </c>
       <c r="N5" s="7">
-        <v>161430</v>
+        <v>999245</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4134,10 +3597,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4149,10 +3612,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4172,49 +3635,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>104611</v>
+        <v>201957</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="I7" s="7">
-        <v>175307</v>
+        <v>297842</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>272</v>
+        <v>458</v>
       </c>
       <c r="N7" s="7">
-        <v>279918</v>
+        <v>499799</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,49 +3686,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>437</v>
+        <v>764</v>
       </c>
       <c r="D8" s="7">
-        <v>453643</v>
+        <v>820474</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>381</v>
+        <v>706</v>
       </c>
       <c r="I8" s="7">
-        <v>384172</v>
+        <v>745071</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
-        <v>818</v>
+        <v>1470</v>
       </c>
       <c r="N8" s="7">
-        <v>837815</v>
+        <v>1565545</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,10 +3737,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4289,10 +3752,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4304,10 +3767,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4327,49 +3790,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D10" s="7">
-        <v>201957</v>
+        <v>112890</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="I10" s="7">
-        <v>297842</v>
+        <v>222612</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>458</v>
+        <v>312</v>
       </c>
       <c r="N10" s="7">
-        <v>499799</v>
+        <v>335502</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,49 +3841,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>764</v>
+        <v>588</v>
       </c>
       <c r="D11" s="7">
-        <v>820474</v>
+        <v>646662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>706</v>
+        <v>532</v>
       </c>
       <c r="I11" s="7">
-        <v>745071</v>
+        <v>562399</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>1470</v>
+        <v>1120</v>
       </c>
       <c r="N11" s="7">
-        <v>1565545</v>
+        <v>1209061</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4444,10 +3907,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4459,10 +3922,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4482,49 +3945,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="D13" s="7">
-        <v>112890</v>
+        <v>197357</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>204</v>
+        <v>325</v>
       </c>
       <c r="I13" s="7">
-        <v>222612</v>
+        <v>361749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
-        <v>312</v>
+        <v>518</v>
       </c>
       <c r="N13" s="7">
-        <v>335502</v>
+        <v>559106</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,49 +3996,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>588</v>
+        <v>739</v>
       </c>
       <c r="D14" s="7">
-        <v>646662</v>
+        <v>740210</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>532</v>
+        <v>634</v>
       </c>
       <c r="I14" s="7">
-        <v>562399</v>
+        <v>682030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>1120</v>
+        <v>1373</v>
       </c>
       <c r="N14" s="7">
-        <v>1209061</v>
+        <v>1422240</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4599,10 +4062,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4614,10 +4077,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4631,55 +4094,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>193</v>
+        <v>612</v>
       </c>
       <c r="D16" s="7">
-        <v>197357</v>
+        <v>640445</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
-        <v>325</v>
+        <v>1013</v>
       </c>
       <c r="I16" s="7">
-        <v>361749</v>
+        <v>1102356</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
-        <v>518</v>
+        <v>1625</v>
       </c>
       <c r="N16" s="7">
-        <v>559106</v>
+        <v>1742802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,49 +4151,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>739</v>
+        <v>2619</v>
       </c>
       <c r="D17" s="7">
-        <v>740210</v>
+        <v>2753905</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
-        <v>634</v>
+        <v>2325</v>
       </c>
       <c r="I17" s="7">
-        <v>682030</v>
+        <v>2442186</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
-        <v>1373</v>
+        <v>4944</v>
       </c>
       <c r="N17" s="7">
-        <v>1422240</v>
+        <v>5196090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,10 +4202,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4754,10 +4217,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4769,10 +4232,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4785,171 +4248,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>612</v>
-      </c>
-      <c r="D19" s="7">
-        <v>640445</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1013</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1102356</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1625</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1742802</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2619</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2753905</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2325</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2442186</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4944</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5196090</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4962,8 +4269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CE71B9-7021-4BFF-9EEA-2205DF812AB9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91736610-319A-4821-92C1-31F96B9EAA36}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4979,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,49 +4387,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="D4" s="7">
-        <v>27853</v>
+        <v>173659</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
-        <v>116</v>
+        <v>560</v>
       </c>
       <c r="I4" s="7">
-        <v>53638</v>
+        <v>270921</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
-        <v>152</v>
+        <v>778</v>
       </c>
       <c r="N4" s="7">
-        <v>81490</v>
+        <v>444581</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,49 +4438,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>82</v>
+        <v>512</v>
       </c>
       <c r="D5" s="7">
-        <v>74129</v>
+        <v>461782</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
-        <v>127</v>
+        <v>679</v>
       </c>
       <c r="I5" s="7">
-        <v>77095</v>
+        <v>404831</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
-        <v>209</v>
+        <v>1191</v>
       </c>
       <c r="N5" s="7">
-        <v>151225</v>
+        <v>866613</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,10 +4489,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5197,10 +4504,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5212,10 +4519,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5235,49 +4542,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="D7" s="7">
-        <v>151860</v>
+        <v>207499</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
-        <v>444</v>
+        <v>652</v>
       </c>
       <c r="I7" s="7">
-        <v>235476</v>
+        <v>376901</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
-        <v>626</v>
+        <v>883</v>
       </c>
       <c r="N7" s="7">
-        <v>387335</v>
+        <v>584400</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,49 +4593,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>430</v>
+        <v>733</v>
       </c>
       <c r="D8" s="7">
-        <v>397963</v>
+        <v>985365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
-        <v>552</v>
+        <v>864</v>
       </c>
       <c r="I8" s="7">
-        <v>357486</v>
+        <v>581205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
-        <v>982</v>
+        <v>1597</v>
       </c>
       <c r="N8" s="7">
-        <v>755450</v>
+        <v>1566571</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,10 +4644,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5352,10 +4659,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5367,10 +4674,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5390,49 +4697,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="D10" s="7">
-        <v>215896</v>
+        <v>162113</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
-        <v>652</v>
+        <v>419</v>
       </c>
       <c r="I10" s="7">
-        <v>411280</v>
+        <v>467984</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
-        <v>883</v>
+        <v>587</v>
       </c>
       <c r="N10" s="7">
-        <v>627176</v>
+        <v>630097</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,49 +4748,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>733</v>
+        <v>508</v>
       </c>
       <c r="D11" s="7">
-        <v>823352</v>
+        <v>542567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>324</v>
       </c>
       <c r="H11" s="7">
-        <v>864</v>
+        <v>628</v>
       </c>
       <c r="I11" s="7">
-        <v>648194</v>
+        <v>465382</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>325</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>1597</v>
+        <v>1136</v>
       </c>
       <c r="N11" s="7">
-        <v>1471546</v>
+        <v>1007949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,10 +4799,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5507,10 +4814,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5522,10 +4829,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5545,49 +4852,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="D13" s="7">
-        <v>167848</v>
+        <v>233522</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
-        <v>419</v>
+        <v>681</v>
       </c>
       <c r="I13" s="7">
-        <v>396314</v>
+        <v>418576</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
-        <v>587</v>
+        <v>948</v>
       </c>
       <c r="N13" s="7">
-        <v>564161</v>
+        <v>652098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,49 +4903,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>508</v>
+        <v>739</v>
       </c>
       <c r="D14" s="7">
-        <v>560924</v>
+        <v>693309</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
-        <v>628</v>
+        <v>878</v>
       </c>
       <c r="I14" s="7">
-        <v>478057</v>
+        <v>672798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
-        <v>1136</v>
+        <v>1617</v>
       </c>
       <c r="N14" s="7">
-        <v>1038981</v>
+        <v>1366107</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5662,10 +4969,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5677,10 +4984,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5694,55 +5001,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>267</v>
+        <v>884</v>
       </c>
       <c r="D16" s="7">
-        <v>237234</v>
+        <v>776794</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
-        <v>681</v>
+        <v>2312</v>
       </c>
       <c r="I16" s="7">
-        <v>461465</v>
+        <v>1534383</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
-        <v>948</v>
+        <v>3196</v>
       </c>
       <c r="N16" s="7">
-        <v>698699</v>
+        <v>2311177</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,49 +5058,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>739</v>
+        <v>2492</v>
       </c>
       <c r="D17" s="7">
-        <v>728169</v>
+        <v>2683023</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
-        <v>878</v>
+        <v>3049</v>
       </c>
       <c r="I17" s="7">
-        <v>684838</v>
+        <v>2124215</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
-        <v>1617</v>
+        <v>5541</v>
       </c>
       <c r="N17" s="7">
-        <v>1413007</v>
+        <v>4807238</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5817,10 +5124,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5361</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3658598</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5832,10 +5139,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8737</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7118415</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5848,171 +5155,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>884</v>
-      </c>
-      <c r="D19" s="7">
-        <v>800691</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2312</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1558171</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3196</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2358862</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2492</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2584537</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3049</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2245671</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5541</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4830208</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5361</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803842</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8737</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7189070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
